--- a/cms-ars-3.1-moderate-nginx-overlay.xlsx
+++ b/cms-ars-3.1-moderate-nginx-overlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-nginx-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8FA8A3-10DB-4A6C-A57E-B6E4318268CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9481C-5289-4843-88F0-3F074EA91EF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="4420" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nginx" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="254">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -581,13 +581,6 @@
   </si>
   <si>
     <t>As a rule, accounts on a web server are to be kept to a minimum. Only administrators, web managers, developers, auditors, and web authors require accounts on the machine hosting the web server. This is in addition to the anonymous web user account. The resources to which these accounts have access must also be closely monitored and controlled. Only the SA needs access to all the system’s capabilities, while the web administrator and associated staff require access and control of the web content and web server configuration files. The anonymous web user account must not have access to system resources as that account could then control the server.</t>
-  </si>
-  <si>
-    <t>Obtain a list of the user accounts for the system, noting the priviledges for each account.  
-Verify with the system administrator or the ISSO that all privileged accounts are mission essential and documented.
-Verify with the system administrator or the ISSO that all non-administrator access to shell scripts and operating system functions are mission essential and documented.
-If undocumented privileged accounts are found, this is a finding.
-If undocumented access to shell scripts or operating system functions is found, this is a finding.</t>
   </si>
   <si>
     <t>Ensure non-administrators are not allowed access to the directory tree, the shell, or other operating system functions and utilities.</t>
@@ -694,28 +687,6 @@
     <t>This check verifies that the key web server system configuration files are owned by the SA or the web administrator controlled account. These same files that control the configuration of the web server, and thus its behavior, must also be accessible by the account that runs the web service. If these files are altered by a malicious user, the web server would no longer be under the control of its managers and owners; properties in the web server configuration could be altered to compromise the entire server platform.</t>
   </si>
   <si>
-    <t>Nginx directory and file permissions and ownership should be set per the following table.. The installation directories may vary from one installation to the next.  If used, the WebAmins group should contain only accounts of persons authorized to manage the web server configuration, otherwise the root group should own all Nginx files and directories. 
-If the files and directories are not set to the following permissions or more restrictive, this is a finding.
-grep for the "root" directive on the nginx.conf file and any separate included configuration files to find the Nginx root directory
-/usr/sbin/nginx        root WebAdmin  550/550
-/etc/nginx/     root WebAdmin 770/660
-/etc/nginx/conf.d     root WebAdmin 770/660
-/etc/nginx/modules    root WebAdmin 770/660
-/usr/share/nginx/html    root WebAdmin  775/664
-/var/log/nginx       root WebAdmin  750/640
-NOTE:  The permissions are noted as directories / files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the chmod command to set permissions on the web server system directories and files as follows.
-/usr/sbin/nginx	       root	WebAdmin 	550/550
-/etc/nginx/     root WebAdmin 770/660
-/etc/nginx/conf.d     root WebAdmin 770/660
-/etc/nginx/modules    root WebAdmin 770/660
-/usr/share/nginx/html    root	WebAdmin 	775/664
-/var/log/nginx       root	WebAdmin 	750/640
-</t>
-  </si>
-  <si>
     <t>A public web server must limit email to outbound only.</t>
   </si>
   <si>
@@ -828,26 +799,6 @@
     <t>Establish a detailed process as part of the configuration management plan to stay compliant with all web server security-related patches.</t>
   </si>
   <si>
-    <t>A private web server’s list of CAs in a trust hierarchy must lead to an authorized  DoD PKI Root CA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A PKI certificate is a digital identifier that establishes the identity of an individual or a platform. A server that has a certificate provides users with third-party confirmation of authenticity. Most web browsers perform server authentication automatically and the user is notified only if the authentication fails. The authentication process between the server and the client is performed using the SSL/TLS protocol. Digital certificates are authenticated, issued, and managed by a trusted Certificate Authority (CA).
-The use of a trusted certificate validation hierarchy is crucial to the ability to control access to a site’s server and to prevent unauthorized access. Only DoD-approved PKIs will be utilized.
-</t>
-  </si>
-  <si>
-    <t>Enter the following command: 
-find / -name ssl.conf  note the path of the file. 
-grep "SSLCACertificateFile" /path/of/ssl.conf  
-Review the results to determine the path of the SSLCACertificateFile. 
-more /path/of/ca-bundle.crt 
-Examine the contents of this file to determine if the trusted CAs are DoD approved. If the trusted CA that is used to authenticate users to the web site does not lead to an approved DoD CA, this is a finding. 
-NOTE: There are non DoD roots that must be on the server in order for it to function. Some applications, such as anti-virus programs, require root CAs to function. DoD approved certificate can include the External Certificate Authorities (ECA), if approved by the DAA. The PKE InstallRoot 3.06 System Administrator Guide (SAG), dated 8 Jul 2008, contains a complete list of DoD, ECA, and IECA CAs.</t>
-  </si>
-  <si>
-    <t>Configure the web server’s trust store to trust only DoD-approved PKIs (e.g., DoD PKI, DoD ECA, and DoD-approved external partners).</t>
-  </si>
-  <si>
     <t>All web server documentation, sample code, example applications, and tutorials must be removed from a production web server.</t>
   </si>
   <si>
@@ -862,22 +813,8 @@
     <t>Ensure sample code and documentation have been removed from the web server.</t>
   </si>
   <si>
-    <t>The private web server must use an approved DoD certificate validation process.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Without the use of a certificate validation process, the site is vulnerable to accepting certificates that have expired or have been revoked.  This would allow unauthorized individuals access to the web server.  This also defeats the purpose of the multi-factor authentication provided by the PKI process.
 </t>
-  </si>
-  <si>
-    <t>The reviewer should query the ISSO, the SA, the web administrator, or developers as necessary to determine if the web server is configured to utilize an approved DoD certificate validation process.
-The web administrator should be questioned to determine if a validation process is being utilized on the web server.
-To validate this, the reviewer can ask the web administrator to describe the validation process being used. They should be able to identify either the use of certificate revocation lists (CRLs) or Online Certificate Status Protocol (OCSP).
-If the production web server is accessible, the SA or the web administrator should be able to demonstrate the validation of good certificates and the rejection of bad certificates.
-If CRLs are being used, the SA should be able to identify how often the CRL is updated and the location from which the CRL is downloaded.
-If the web administrator cannot identify the type of validation process being used, this is a finding.</t>
-  </si>
-  <si>
-    <t>Configure DoD Private Web Servers to conduct certificate revocation checking utilizing certificate revocation lists (CRLs) or Online Certificate Status Protocol (OCSP).</t>
   </si>
   <si>
     <t>The client body and header timeout directives must be properly set.</t>
@@ -1209,12 +1146,584 @@
 }
 </t>
   </si>
+  <si>
+    <t>Need to configure dmz_subnet attribute</t>
+  </si>
+  <si>
+    <t>need to configure NGINX_MIN_VER</t>
+  </si>
+  <si>
+    <t>Obtain a list of the user accounts for the system, noting the privileges for each account.  
+Verify with the system administrator or the ISSO that all privileged accounts are mission essential and documented.
+Verify with the system administrator or the ISSO that all non-administrator access to shell scripts and operating system functions are mission essential and documented.
+If undocumented privileged accounts are found, this is a finding.
+If undocumented access to shell scripts or operating system functions is found, this is a finding.</t>
+  </si>
+  <si>
+    <t>Configure the sys_admin attribute</t>
+  </si>
+  <si>
+    <t>Maybe have to configure email package?</t>
+  </si>
+  <si>
+    <t>Configure monitoring software?</t>
+  </si>
+  <si>
+    <t>update to align with changes in simp rhel v-71999
+https://github.cms.gov/ISPG/inspec-profile-disa_stig-el7/blob/78e48ea893b7aa80ea8027b2bc88500d4e2ce89d/controls/V-71999.rb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A private web server’s list of CAs in a trust hierarchy must lead to an authorized  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">DoD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PKI Root CA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A PKI certificate is a digital identifier that establishes the identity of an individual or a platform. A server that has a certificate provides users with third-party confirmation of authenticity. Most web browsers perform server authentication automatically and the user is notified only if the authentication fails. The authentication process between the server and the client is performed using the SSL/TLS protocol. Digital certificates are authenticated, issued, and managed by a trusted Certificate Authority (CA).
+The use of a trusted certificate validation hierarchy is crucial to the ability to control access to a site’s server and to prevent unauthorized access. Only </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-approved PKIs will be utilized.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Should we just make this a manual check?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the following command: 
+find / -name ssl.conf  note the path of the file. 
+grep "SSLCACertificateFile" /path/of/ssl.conf  
+Review the results to determine the path of the SSLCACertificateFile. 
+more /path/of/ca-bundle.crt 
+Examine the contents of this file to determine if the trusted CAs are </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> approved. If the trusted CA that is used to authenticate users to the web site does not lead to an approved </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CA, this is a finding. 
+NOTE: There are non</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> roots that must be on the server in order for it to function. Some applications, such as anti-virus programs, require root CAs to function. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> approved certificate can include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>external CAs</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>the External Certificate Authorities (ECA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, if approved by the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DAA. The PKE InstallRoot 3.06 System Administrator Guide (SAG), dated 8 Jul 2008, contains a complete list of DoD, ECA, and IECA CAs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure the web server’s trust store to trust only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-approved PKIs</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., DoD PKI, DoD ECA, and DoD-approved external partners)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should this also be a manual check?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The private web server must use an approved </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> certificate validation process.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The reviewer should query the ISSO, the SA, the web administrator, or developers as necessary to determine if the web server is configured to utilize an approved </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> certificate validation process.
+The web administrator should be questioned to determine if a validation process is being utilized on the web server.
+To validate this, the reviewer can ask the web administrator to describe the validation process being used. They should be able to identify either the use of certificate revocation lists (CRLs) or Online Certificate Status Protocol (OCSP).
+If the production web server is accessible, the SA or the web administrator should be able to demonstrate the validation of good certificates and the rejection of bad certificates.
+If CRLs are being used, the SA should be able to identify how often the CRL is updated and the location from which the CRL is downloaded.
+If the web administrator cannot identify the type of validation process being used, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Private Web Servers to conduct certificate revocation checking utilizing certificate revocation lists (CRLs) or Online Certificate Status Protocol (OCSP).</t>
+    </r>
+  </si>
+  <si>
+    <t>Left as-is because session lock of 15 minutes doesn't make sense for this.</t>
+  </si>
+  <si>
+    <t>Need to configure to use</t>
+  </si>
+  <si>
+    <t>It looks like we try to do this in an automated way. Should this also be a manual check to review the plans as described in the check field?</t>
+  </si>
+  <si>
+    <t>Make this a manual check that follows new format.</t>
+  </si>
+  <si>
+    <r>
+      <t>Nginx directory and file permissions and ownership should be set per the following table.. The installation directories may vary from one installation to the next.  If used, the WebAmins group should contain only accounts of persons authorized to manage the web server configuration, otherwise the root group should own all Nginx files and directories. 
+If the files and directories are not set to the following permissions or more restrictive, this is a finding.
+grep for the "root" directive on the nginx.conf file and any separate included configuration files to find the Nginx root directory
+/usr/sbin/nginx        root WebAdmin  550/550
+/etc/nginx/     root WebAdmin 770/660
+/etc/nginx/conf.d     root WebAdmin 770/660
+/etc/nginx/modules    root WebAdmin 770/660
+/usr/share/nginx/html    root WebAdmin  77</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/66</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/var/log/nginx       root WebAdmin  750/640
+NOTE:  The permissions are noted as directories / files</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the chmod command to set permissions on the web server system directories and files as follows.
+/usr/sbin/nginx	       root	WebAdmin 	550/550
+/etc/nginx/     root WebAdmin 770/660
+/etc/nginx/conf.d     root WebAdmin 770/660
+/etc/nginx/modules    root WebAdmin 770/660
+/usr/share/nginx/html    root	WebAdmin 	77</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/66</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+/var/log/nginx       root	WebAdmin 	750/640
+</t>
+    </r>
+  </si>
+  <si>
+    <t>need to configure to work</t>
+  </si>
+  <si>
+    <t>Need to change 775 to prevent public read/write
+Need to change 664 to 660 to prevent public read/write
+need to configure to use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,6 +1877,39 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1753,7 +2295,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1774,17 +2316,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1799,6 +2335,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1846,16 +2400,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2165,31 +2710,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2:B58"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD339"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="48" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="3"/>
+    <col min="6" max="6" width="35.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
     <col min="10" max="10" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="4"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,8 +2763,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="409.6">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2245,35 +2790,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:10" ht="256">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:10" ht="365">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2282,7 +2827,7 @@
       <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2299,8 +2844,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" ht="208">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2326,20 +2871,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:10" ht="320">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2353,8 +2898,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" ht="272">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2375,13 +2920,15 @@
       <c r="G7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:10" ht="272">
+      <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2402,83 +2949,89 @@
       <c r="G8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" ht="335">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10" ht="320">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:10" ht="409.6">
+      <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>67</v>
@@ -2488,24 +3041,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:10" ht="350">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>72</v>
@@ -2515,213 +3068,227 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10" ht="409.6">
+      <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:10" ht="335">
+      <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:10" ht="365">
+      <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>136</v>
+      <c r="E15" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" ht="272">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="J16" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" ht="256">
+      <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10" ht="409.6">
+      <c r="A18" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="21" t="s">
+        <v>249</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:10" ht="409.6">
+      <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="15" t="s">
+        <v>248</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:10" ht="240">
+      <c r="A20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>67</v>
@@ -2731,186 +3298,196 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="409.6">
+      <c r="A21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="J21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:10" ht="409.6">
+      <c r="A22" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>164</v>
+      <c r="C22" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:10" ht="365">
+      <c r="A23" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="J23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="365">
+      <c r="A24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="C24" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="9"/>
       <c r="J24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:10" ht="409" customHeight="1">
+      <c r="A25" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="J25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:10" ht="288">
+      <c r="A26" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:10" ht="304">
+      <c r="A27" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>67</v>
@@ -2920,24 +3497,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:10" ht="240">
+      <c r="A28" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>67</v>
@@ -2947,24 +3524,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" ht="320">
+      <c r="A29" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>67</v>
@@ -2974,24 +3551,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:10" ht="288">
+      <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>67</v>
@@ -3001,24 +3578,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="360" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:10" ht="288">
+      <c r="A31" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>67</v>
@@ -3028,24 +3605,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:10" ht="256">
+      <c r="A32" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>67</v>
@@ -3055,24 +3632,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:10" ht="240">
+      <c r="A33" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>77</v>
@@ -3082,24 +3659,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:10" ht="240">
+      <c r="A34" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>72</v>
@@ -3109,24 +3686,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:10" ht="144">
+      <c r="A35" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>72</v>
@@ -3136,24 +3713,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:10" ht="395">
+      <c r="A36" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>72</v>
@@ -3163,24 +3740,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:10" ht="192">
+      <c r="A37" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>72</v>
@@ -3190,51 +3767,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:10" ht="395">
+      <c r="A38" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="J38" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:10" ht="224">
+      <c r="A39" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>77</v>
@@ -3244,24 +3823,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:10" ht="240">
+      <c r="A40" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>78</v>
@@ -3271,24 +3850,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:10" ht="409" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>80</v>
@@ -3298,24 +3877,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:10" ht="256">
+      <c r="A42" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>80</v>

--- a/cms-ars-3.1-moderate-nginx-overlay.xlsx
+++ b/cms-ars-3.1-moderate-nginx-overlay.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-nginx-stig-overlay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9481C-5289-4843-88F0-3F074EA91EF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D413EB5-E5CD-40F0-AAF1-92A7C4EF356A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="4420" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nginx" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nginx!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nginx!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="231">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -56,51 +56,6 @@
   </si>
   <si>
     <t>NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CM-6 b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IA-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC-8 a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SC-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC-7 a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC-7 b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AC-6 (10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IA-5 (1) (d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IA-5 (1) (e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IA-4 e</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IA-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SC-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SC-8</t>
-  </si>
-  <si>
-    <t>800-53</t>
   </si>
   <si>
     <t>V-2230</t>
@@ -563,15 +518,6 @@
   </si>
   <si>
     <t>Many vulnerabilities are associated with older versions of web server software. As hot fixes and patches are issued, these solutions are included in the next version of the server software. Maintaining the web server at a current version makes the efforts of a malicious user to exploit the web service more difficult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To determine the version of the nginx software that is running on the system. Use the command:
-nginx -v
-If the version of nginx is not at the following version or higher, this is a finding.
-nginx version: nginx/1.13.0
-Note: In some situations, the nginx software that is being used is supported by another vendor, such as nginx.com. 
-The versions of the software in these cases may not match the above mentioned version numbers. If the site can provide vendor documentation showing the version of the web server is supported, this would not be a finding.
-</t>
   </si>
   <si>
     <t>Install the current version of the web server software and maintain appropriate service packs and patches.</t>
@@ -1147,12 +1093,6 @@
 </t>
   </si>
   <si>
-    <t>Need to configure dmz_subnet attribute</t>
-  </si>
-  <si>
-    <t>need to configure NGINX_MIN_VER</t>
-  </si>
-  <si>
     <t>Obtain a list of the user accounts for the system, noting the privileges for each account.  
 Verify with the system administrator or the ISSO that all privileged accounts are mission essential and documented.
 Verify with the system administrator or the ISSO that all non-administrator access to shell scripts and operating system functions are mission essential and documented.
@@ -1160,15 +1100,6 @@
 If undocumented access to shell scripts or operating system functions is found, this is a finding.</t>
   </si>
   <si>
-    <t>Configure the sys_admin attribute</t>
-  </si>
-  <si>
-    <t>Maybe have to configure email package?</t>
-  </si>
-  <si>
-    <t>Configure monitoring software?</t>
-  </si>
-  <si>
     <t>update to align with changes in simp rhel v-71999
 https://github.cms.gov/ISPG/inspec-profile-disa_stig-el7/blob/78e48ea893b7aa80ea8027b2bc88500d4e2ce89d/controls/V-71999.rb</t>
   </si>
@@ -1229,9 +1160,6 @@
       <t xml:space="preserve">-approved PKIs will be utilized.
 </t>
     </r>
-  </si>
-  <si>
-    <t>Should we just make this a manual check?</t>
   </si>
   <si>
     <r>
@@ -1459,9 +1387,6 @@
     </r>
   </si>
   <si>
-    <t>Should this also be a manual check?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The private web server must use an approved </t>
     </r>
@@ -1563,44 +1488,52 @@
     </r>
   </si>
   <si>
-    <t>Left as-is because session lock of 15 minutes doesn't make sense for this.</t>
-  </si>
-  <si>
-    <t>Need to configure to use</t>
-  </si>
-  <si>
-    <t>It looks like we try to do this in an automated way. Should this also be a manual check to review the plans as described in the check field?</t>
-  </si>
-  <si>
-    <t>Make this a manual check that follows new format.</t>
-  </si>
-  <si>
-    <r>
-      <t>Nginx directory and file permissions and ownership should be set per the following table.. The installation directories may vary from one installation to the next.  If used, the WebAmins group should contain only accounts of persons authorized to manage the web server configuration, otherwise the root group should own all Nginx files and directories. 
+    <t>Nginx directory and file permissions and ownership should be set per the following table.. The installation directories may vary from one installation to the next.  If used, the WebAmins group should contain only accounts of persons authorized to manage the web server configuration, otherwise the root group should own all Nginx files and directories. 
 If the files and directories are not set to the following permissions or more restrictive, this is a finding.
 grep for the "root" directive on the nginx.conf file and any separate included configuration files to find the Nginx root directory
 /usr/sbin/nginx        root WebAdmin  550/550
 /etc/nginx/     root WebAdmin 770/660
 /etc/nginx/conf.d     root WebAdmin 770/660
 /etc/nginx/modules    root WebAdmin 770/660
-/usr/share/nginx/html    root WebAdmin  77</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
+/usr/share/nginx/html    root WebAdmin  775/664
+/var/log/nginx       root WebAdmin  750/640
+NOTE:  The permissions are noted as directories / files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the chmod command to set permissions on the web server system directories and files as follows.
+/usr/sbin/nginx	       root	WebAdmin 	550/550
+/etc/nginx/     root WebAdmin 770/660
+/etc/nginx/conf.d     root WebAdmin 770/660
+/etc/nginx/modules    root WebAdmin 770/660
+/usr/share/nginx/html    root	WebAdmin 	775/664
+/var/log/nginx       root	WebAdmin 	750/640
+</t>
+  </si>
+  <si>
+    <t>describe "For this CMS ARS 3.1 overlay, this control must be reviewed manually" do 
+skip "For this CMS ARS 3.1 overlay, this control must be reviewed manually"
+end</t>
+  </si>
+  <si>
+    <t>User-defined attribute needed to provide the system-specific public DMZ subnet that houses the public web servers. See Readme for this profile.</t>
+  </si>
+  <si>
+    <r>
+      <t>To determine the version of the nginx software that is running on the system. Use the command:
+nginx -v
+If the version of nginx is not at the following version or higher, this is a finding.
+nginx version: nginx/1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1610,120 +1543,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/66</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/var/log/nginx       root WebAdmin  750/640
-NOTE:  The permissions are noted as directories / files</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Use the chmod command to set permissions on the web server system directories and files as follows.
-/usr/sbin/nginx	       root	WebAdmin 	550/550
-/etc/nginx/     root WebAdmin 770/660
-/etc/nginx/conf.d     root WebAdmin 770/660
-/etc/nginx/modules    root WebAdmin 770/660
-/usr/share/nginx/html    root	WebAdmin 	77</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/66</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-/var/log/nginx       root	WebAdmin 	750/640
-</t>
-    </r>
-  </si>
-  <si>
-    <t>need to configure to work</t>
-  </si>
-  <si>
-    <t>Need to change 775 to prevent public read/write
-Need to change 664 to 660 to prevent public read/write
-need to configure to use</t>
+      <t xml:space="preserve">.0
+Note: In some situations, the nginx software that is being used is supported by another vendor, such as nginx.com. 
+The versions of the software in these cases may not match the above mentioned version numbers. If the site can provide vendor documentation showing the version of the web server is supported, this would not be a finding.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>User-defined attribute needed to provide the specific system administrator, nginx account owner/group   names used for this system. See Readme for this profile.</t>
+  </si>
+  <si>
+    <t>User-defined attribute needed to provide the specific system administrator account name and nginx owner account name used for this system. See Readme for this profile.</t>
+  </si>
+  <si>
+    <t>User-defined attribute(s) needed. See Readme for this profile.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1897,21 +1737,21 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2295,20 +2135,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2319,7 +2155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,22 +2173,25 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2710,31 +2549,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
-      <selection activeCell="A2" sqref="A2:B58"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD339"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="48" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="3"/>
-    <col min="10" max="10" width="11" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.3125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.47265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.20703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.26171875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.7890625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.9453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.05078125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" customHeight="1">
+    <row r="1" spans="1:8" ht="15.55" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,1153 +2596,1019 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="331.2">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="230.4">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="316.8">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="158.4">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="273.60000000000002">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="230.4">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="244.8">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="288">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="273.60000000000002">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="360">
+      <c r="A11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="273.60000000000002">
+      <c r="A12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="388.8">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="273.60000000000002">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="302.39999999999998">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="230.4">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6">
-      <c r="A2" s="11" t="s">
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="230.4">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="409.5">
+      <c r="A18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="256">
-      <c r="A3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.5">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="365">
-      <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="201.6">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="409.5">
+      <c r="A21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="208">
-      <c r="A5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="331.2">
+      <c r="A22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="320">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="302.39999999999998">
+      <c r="A23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="302.39999999999998">
+      <c r="A24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="272">
-      <c r="A7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="409" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="C25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="244.8">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="273.60000000000002">
+      <c r="A27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="201.6">
+      <c r="A28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="288">
+      <c r="A29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="244.8">
+      <c r="A30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="244.8">
+      <c r="A31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="216">
+      <c r="A32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="201.6">
+      <c r="A33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="201.6">
+      <c r="A34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="129.6">
+      <c r="A35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="345.6">
+      <c r="A36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="172.8">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="331.2">
+      <c r="A38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="272">
-      <c r="A8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="335">
-      <c r="A9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="320">
-      <c r="A10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="187.2">
+      <c r="A39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="409.6">
-      <c r="A11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="350">
-      <c r="A12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="244.8">
+      <c r="A40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="409.6">
-      <c r="A13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="409" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="335">
-      <c r="A14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="365">
-      <c r="A15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="216">
+      <c r="A42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="272">
-      <c r="A16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="256">
-      <c r="A17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="409.6">
-      <c r="A18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="409.6">
-      <c r="A19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="240">
-      <c r="A20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.6">
-      <c r="A21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.6">
-      <c r="A22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="365">
-      <c r="A23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="365">
-      <c r="A24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="J24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="409" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="288">
-      <c r="A26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="304">
-      <c r="A27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="240">
-      <c r="A28" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="J28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="320">
-      <c r="A29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="288">
-      <c r="A30" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="J30" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="288">
-      <c r="A31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="J31" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="256">
-      <c r="A32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="J32" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="240">
-      <c r="A33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="240">
-      <c r="A34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="J34" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="144">
-      <c r="A35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="J35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="395">
-      <c r="A36" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="J36" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="192">
-      <c r="A37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="C42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="J37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="395">
-      <c r="A38" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="224">
-      <c r="A39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="J39" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="240">
-      <c r="A40" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="J40" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="409" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="G42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="J41" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="256">
-      <c r="A42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H42" s="1"/>
-      <c r="J42" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{36045688-EAFA-4F0D-A552-6A9CF4EBD8AA}"/>
+  <autoFilter ref="A1:H42" xr:uid="{24772F0D-3F16-4461-BDCA-C624A095D70F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cms-ars-3.1-moderate-nginx-overlay.xlsx
+++ b/cms-ars-3.1-moderate-nginx-overlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-nginx-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D413EB5-E5CD-40F0-AAF1-92A7C4EF356A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B557C1-D132-0C4D-901E-8D982A3FDF03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67200" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nginx" sheetId="1" r:id="rId1"/>
@@ -357,32 +357,6 @@
   </si>
   <si>
     <t>Remove any compiler found on the production web server, but if the compiler program is needed to patch or upgrade an application suite in a production environment or the compiler is embedded and will break the suite if removed, document the compiler installation with the ISSO/ISSM and ensure that the compiler is restricted to only administrative users.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A public web server, if hosted on the NIPRNet, must be isolated in an accredited </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DoD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DMZ Extension.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1105,30 +1079,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A private web server’s list of CAs in a trust hierarchy must lead to an authorized  </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">DoD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PKI Root CA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A PKI certificate is a digital identifier that establishes the identity of an individual or a platform. A server that has a certificate provides users with third-party confirmation of authenticity. Most web browsers perform server authentication automatically and the user is notified only if the authentication fails. The authentication process between the server and the client is performed using the SSL/TLS protocol. Digital certificates are authenticated, issued, and managed by a trusted Certificate Authority (CA).
 The use of a trusted certificate validation hierarchy is crucial to the ability to control access to a site’s server and to prevent unauthorized access. Only </t>
     </r>
@@ -1557,6 +1507,93 @@
   </si>
   <si>
     <t>User-defined attribute(s) needed. See Readme for this profile.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A public web server, if hosted on the NIPRNet, must be isolated in an accredited </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DoD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DMZ </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A private web server’s list of CAs in a trust hierarchy must lead to an authorized </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">DoD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PKI Root CA.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2555,23 +2592,23 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.3125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.47265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.20703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.26171875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="57.7890625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.9453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.05078125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.55" customHeight="1">
+    <row r="1" spans="1:8" ht="15.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="331.2">
+    <row r="2" spans="1:8" ht="365">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2658,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="230.4">
+    <row r="3" spans="1:8" ht="256">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2645,7 +2682,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="316.8">
+    <row r="4" spans="1:8" ht="335">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2706,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="158.4">
+    <row r="5" spans="1:8" ht="176">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -2692,10 +2729,10 @@
         <v>52</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="273.60000000000002">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="304">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -2703,25 +2740,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="230.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="240">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -2729,25 +2766,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="244.8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="272">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -2755,23 +2792,23 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="288">
+    <row r="9" spans="1:8" ht="304">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -2779,25 +2816,25 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="273.60000000000002">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="304">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
@@ -2805,25 +2842,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="360">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="395">
       <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
@@ -2831,23 +2868,23 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="273.60000000000002">
+    <row r="12" spans="1:8" ht="304">
       <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
@@ -2855,23 +2892,23 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="388.8">
+    <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -2879,25 +2916,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="273.60000000000002">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="304">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
@@ -2905,25 +2942,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="302.39999999999998">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="320">
       <c r="A15" s="14" t="s">
         <v>24</v>
       </c>
@@ -2931,25 +2968,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="230.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="256">
       <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
@@ -2957,23 +2994,23 @@
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="230.4">
+    <row r="17" spans="1:8" ht="240">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
@@ -2981,23 +3018,23 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="409.5">
+    <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
@@ -3005,25 +3042,25 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="409.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="14" t="s">
         <v>28</v>
       </c>
@@ -3031,23 +3068,23 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="201.6">
+    <row r="20" spans="1:8" ht="208">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -3055,23 +3092,23 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="409.5">
+    <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
@@ -3079,25 +3116,25 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="331.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="365">
       <c r="A22" s="15" t="s">
         <v>31</v>
       </c>
@@ -3105,25 +3142,25 @@
         <v>7</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="302.39999999999998">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="320">
       <c r="A23" s="14" t="s">
         <v>32</v>
       </c>
@@ -3131,25 +3168,25 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="302.39999999999998">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="335">
       <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
@@ -3157,16 +3194,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>61</v>
@@ -3181,23 +3218,23 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="244.8">
+    <row r="26" spans="1:8" ht="272">
       <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
@@ -3205,23 +3242,23 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="273.60000000000002">
+    <row r="27" spans="1:8" ht="288">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -3229,23 +3266,23 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="201.6">
+    <row r="28" spans="1:8" ht="224">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -3253,23 +3290,23 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="288">
+    <row r="29" spans="1:8" ht="320">
       <c r="A29" s="14" t="s">
         <v>38</v>
       </c>
@@ -3277,23 +3314,23 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="244.8">
+    <row r="30" spans="1:8" ht="272">
       <c r="A30" s="14" t="s">
         <v>39</v>
       </c>
@@ -3301,23 +3338,23 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="244.8">
+    <row r="31" spans="1:8" ht="256">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3325,23 +3362,23 @@
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="216">
+    <row r="32" spans="1:8" ht="240">
       <c r="A32" s="14" t="s">
         <v>41</v>
       </c>
@@ -3349,23 +3386,23 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="201.6">
+    <row r="33" spans="1:8" ht="208">
       <c r="A33" s="14" t="s">
         <v>42</v>
       </c>
@@ -3373,23 +3410,23 @@
         <v>7</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="201.6">
+    <row r="34" spans="1:8" ht="224">
       <c r="A34" s="14" t="s">
         <v>43</v>
       </c>
@@ -3397,23 +3434,23 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="129.6">
+    <row r="35" spans="1:8" ht="128">
       <c r="A35" s="14" t="s">
         <v>44</v>
       </c>
@@ -3421,23 +3458,23 @@
         <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="345.6">
+    <row r="36" spans="1:8" ht="365">
       <c r="A36" s="14" t="s">
         <v>45</v>
       </c>
@@ -3445,23 +3482,23 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="172.8">
+    <row r="37" spans="1:8" ht="176">
       <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
@@ -3469,23 +3506,23 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>57</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="331.2">
+    <row r="38" spans="1:8" ht="365">
       <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
@@ -3493,25 +3530,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="187.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="208">
       <c r="A39" s="14" t="s">
         <v>48</v>
       </c>
@@ -3519,23 +3556,23 @@
         <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="244.8">
+    <row r="40" spans="1:8" ht="256">
       <c r="A40" s="14" t="s">
         <v>49</v>
       </c>
@@ -3543,16 +3580,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>63</v>
@@ -3567,23 +3604,23 @@
         <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>65</v>
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="216">
+    <row r="42" spans="1:8" ht="240">
       <c r="A42" s="14" t="s">
         <v>51</v>
       </c>
@@ -3591,16 +3628,16 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>65</v>
